--- a/Bording.xlsx
+++ b/Bording.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leon-\Documents\TUB\FE2_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C277E50E-0B31-4E1F-9523-403D5C49B0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CF1BDA-FB8E-4F3B-8F9C-83CB0FCA0163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{7789F29C-E3B9-4418-9923-EBD977292B47}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -204,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +224,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -357,7 +369,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -372,10 +384,13 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -2024,7 +2039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFE2A15-1CE8-4C19-AC85-D48FB32B9979}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
@@ -3152,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455A73F0-09B9-4285-A30E-850D563D579C}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4344,951 +4359,815 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559376B-859F-45D4-8A7C-75E66448EF74}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" style="17"/>
-    <col min="4" max="4" width="11.5546875" style="17"/>
+    <col min="2" max="2" width="11.5546875" style="16"/>
+    <col min="4" max="4" width="11.5546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="17">
         <f>(LinkeSeite!A2+RechteSeite!A2)/2</f>
         <v>11.575990000000017</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <f>(LinkeSeite!B2*80+RechteSeite!B2*80)</f>
         <v>320</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="17">
         <f>FlugzeugMitte!A2</f>
         <v>11.398190000000019</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="18">
         <f>FlugzeugMitte!B2*80</f>
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="17">
         <f>(LinkeSeite!A3+RechteSeite!A3)/2</f>
         <v>13.328590000000016</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <f>(LinkeSeite!B3*80+RechteSeite!B3*80)</f>
         <v>320</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="17">
         <f>FlugzeugMitte!A3</f>
         <v>13.150790000000018</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="18">
         <f>FlugzeugMitte!B3*80</f>
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="17">
         <f>(LinkeSeite!A4+RechteSeite!A4)/2</f>
         <v>15.081190000000015</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="18">
         <f>(LinkeSeite!B4*80+RechteSeite!B4*80)</f>
         <v>320</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="17">
         <f>FlugzeugMitte!A4</f>
         <v>14.903390000000018</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <f>FlugzeugMitte!B4*80</f>
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="17">
         <f>(LinkeSeite!A5+RechteSeite!A5)/2</f>
         <v>16.833790000000015</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <f>(LinkeSeite!B5*80+RechteSeite!B5*80)</f>
         <v>320</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="17">
         <f>FlugzeugMitte!A5</f>
         <v>16.655990000000017</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="18">
         <f>FlugzeugMitte!B5*80</f>
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="17">
         <f>(LinkeSeite!A6+RechteSeite!A6)/2</f>
         <v>18.586390000000016</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <f>(LinkeSeite!B6*80+RechteSeite!B6*80)</f>
         <v>320</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="17">
         <f>FlugzeugMitte!A6</f>
         <v>18.408590000000018</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="18">
         <f>FlugzeugMitte!B6*80</f>
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="17">
         <f>(LinkeSeite!A7+RechteSeite!A7)/2</f>
         <v>20.891565814759179</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <f>(LinkeSeite!B7*80+RechteSeite!B7*80)</f>
         <v>320</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="17">
         <f>FlugzeugMitte!A7</f>
         <v>20.535965814759173</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="18">
         <f>FlugzeugMitte!B7*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="17">
         <f>(LinkeSeite!A8+RechteSeite!A8)/2</f>
         <v>22.313965814759165</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="18">
         <f>(LinkeSeite!B8*80+RechteSeite!B8*80)</f>
         <v>320</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="17">
         <f>FlugzeugMitte!A8</f>
         <v>21.780565814759175</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="18">
         <f>FlugzeugMitte!B8*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="17">
         <f>(LinkeSeite!A9+RechteSeite!A9)/2</f>
         <v>26.95402</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="18">
         <f>(LinkeSeite!B9*80+RechteSeite!B9*80)</f>
         <v>320</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="17">
         <f>FlugzeugMitte!A9</f>
         <v>22.999765814759172</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="18">
         <f>FlugzeugMitte!B9*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="17">
         <f>(LinkeSeite!A10+RechteSeite!A10)/2</f>
         <v>28.224019999999999</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <f>(LinkeSeite!B10*80+RechteSeite!B10*80)</f>
         <v>320</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="17">
         <f>FlugzeugMitte!A10</f>
         <v>26.598159999999989</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="18">
         <f>FlugzeugMitte!B10*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="17">
         <f>(LinkeSeite!A11+RechteSeite!A11)/2</f>
         <v>29.494019999999999</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="18">
         <f>(LinkeSeite!B11*80+RechteSeite!B11*80)</f>
         <v>320</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="17">
         <f>FlugzeugMitte!A11</f>
         <v>27.868159999999989</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="18">
         <f>FlugzeugMitte!B11*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="17">
         <f>(LinkeSeite!A12+RechteSeite!A12)/2</f>
         <v>30.764019999999999</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="18">
         <f>(LinkeSeite!B12*80+RechteSeite!B12*80)</f>
         <v>320</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="17">
         <f>FlugzeugMitte!A12</f>
         <v>29.138159999999989</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="18">
         <f>FlugzeugMitte!B12*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="17">
         <f>(LinkeSeite!A13+RechteSeite!A13)/2</f>
         <v>32.034019999999998</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="18">
         <f>(LinkeSeite!B13*80+RechteSeite!B13*80)</f>
         <v>320</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="17">
         <f>FlugzeugMitte!A13</f>
         <v>30.408159999999988</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="18">
         <f>FlugzeugMitte!B13*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="17">
         <f>(LinkeSeite!A14+RechteSeite!A14)/2</f>
         <v>33.304020000000001</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="18">
         <f>(LinkeSeite!B14*80+RechteSeite!B14*80)</f>
         <v>320</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="17">
         <f>FlugzeugMitte!A14</f>
         <v>31.678159999999988</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="18">
         <f>FlugzeugMitte!B14*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="17">
         <f>(LinkeSeite!A15+RechteSeite!A15)/2</f>
         <v>35.122130085889914</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="18">
         <f>(LinkeSeite!B15*80+RechteSeite!B15*80)</f>
         <v>480</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="17">
         <f>FlugzeugMitte!A15</f>
         <v>32.948159999999987</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="18">
         <f>FlugzeugMitte!B15*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="17">
         <f>(LinkeSeite!A16+RechteSeite!A16)/2</f>
         <v>36.036530085889915</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="18">
         <f>(LinkeSeite!B16*80+RechteSeite!B16*80)</f>
         <v>480</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="17">
         <f>FlugzeugMitte!A16</f>
         <v>34.740870085889902</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="18">
         <f>FlugzeugMitte!B16*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="17">
         <f>(LinkeSeite!A17+RechteSeite!A17)/2</f>
         <v>36.950930085889908</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="18">
         <f>(LinkeSeite!B17*80+RechteSeite!B17*80)</f>
         <v>480</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="17">
         <f>FlugzeugMitte!A17</f>
         <v>35.629870085889898</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="18">
         <f>FlugzeugMitte!B17*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="17">
         <f>(LinkeSeite!A18+RechteSeite!A18)/2</f>
         <v>37.839930085889904</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="18">
         <f>(LinkeSeite!B18*80+RechteSeite!B18*80)</f>
         <v>480</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="17">
         <f>FlugzeugMitte!A18</f>
         <v>36.518870085889894</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="18">
         <f>FlugzeugMitte!B18*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="17">
         <f>(LinkeSeite!A19+RechteSeite!A19)/2</f>
         <v>38.728930085889907</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="18">
         <f>(LinkeSeite!B19*80+RechteSeite!B19*80)</f>
         <v>480</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="17">
         <f>FlugzeugMitte!A19</f>
         <v>37.40787008588989</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="18">
         <f>FlugzeugMitte!B19*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="17">
         <f>(LinkeSeite!A20+RechteSeite!A20)/2</f>
         <v>39.617930085889903</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="18">
         <f>(LinkeSeite!B20*80+RechteSeite!B20*80)</f>
         <v>480</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="17">
         <f>FlugzeugMitte!A20</f>
         <v>38.271470085889888</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="18">
         <f>FlugzeugMitte!B20*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21" s="17">
         <f>(LinkeSeite!A21+RechteSeite!A21)/2</f>
         <v>40.506930085889898</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="18">
         <f>(LinkeSeite!B21*80+RechteSeite!B21*80)</f>
         <v>480</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="17">
         <f>FlugzeugMitte!A21</f>
         <v>39.135070085889886</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="18">
         <f>FlugzeugMitte!B21*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22" s="17">
         <f>(LinkeSeite!A22+RechteSeite!A22)/2</f>
         <v>44.787140000000001</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="18">
         <f>(LinkeSeite!B22*80+RechteSeite!B22*80)</f>
         <v>480</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="17">
         <f>FlugzeugMitte!A22</f>
         <v>39.998670085889884</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="18">
         <f>FlugzeugMitte!B22*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="A23" s="17">
         <f>(LinkeSeite!A23+RechteSeite!A23)/2</f>
         <v>45.676139999999997</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="18">
         <f>(LinkeSeite!B23*80+RechteSeite!B23*80)</f>
         <v>480</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="17">
         <f>FlugzeugMitte!A23</f>
         <v>40.862270085889882</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="18">
         <f>FlugzeugMitte!B23*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="17">
         <f>(LinkeSeite!A24+RechteSeite!A24)/2</f>
         <v>46.565139999999992</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="18">
         <f>(LinkeSeite!B24*80+RechteSeite!B24*80)</f>
         <v>480</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="17">
         <f>FlugzeugMitte!A24</f>
         <v>44.58394000000002</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="18">
         <f>FlugzeugMitte!B24*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
+      <c r="A25" s="17">
         <f>(LinkeSeite!A25+RechteSeite!A25)/2</f>
         <v>47.454139999999988</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="18">
         <f>(LinkeSeite!B25*80+RechteSeite!B25*80)</f>
         <v>480</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="17">
         <f>FlugzeugMitte!A25</f>
         <v>45.472940000000015</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="18">
         <f>FlugzeugMitte!B25*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+      <c r="A26" s="17">
         <f>(LinkeSeite!A26+RechteSeite!A26)/2</f>
         <v>48.343139999999984</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="18">
         <f>(LinkeSeite!B26*80+RechteSeite!B26*80)</f>
         <v>480</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="17">
         <f>FlugzeugMitte!A26</f>
         <v>46.361940000000011</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="18">
         <f>FlugzeugMitte!B26*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+      <c r="A27" s="17">
         <f>(LinkeSeite!A27+RechteSeite!A27)/2</f>
         <v>49.23213999999998</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="18">
         <f>(LinkeSeite!B27*80+RechteSeite!B27*80)</f>
         <v>480</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="17">
         <f>FlugzeugMitte!A27</f>
         <v>47.225540000000009</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="18">
         <f>FlugzeugMitte!B27*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28" s="17">
         <f>(LinkeSeite!A28+RechteSeite!A28)/2</f>
         <v>50.121139999999976</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="18">
         <f>(LinkeSeite!B28*80+RechteSeite!B28*80)</f>
         <v>480</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="17">
         <f>FlugzeugMitte!A28</f>
         <v>48.089140000000008</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="18">
         <f>FlugzeugMitte!B28*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="17">
         <f>(LinkeSeite!A29+RechteSeite!A29)/2</f>
         <v>51.010139999999971</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="18">
         <f>(LinkeSeite!B29*80+RechteSeite!B29*80)</f>
         <v>480</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="17">
         <f>FlugzeugMitte!A29</f>
         <v>48.952740000000006</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="18">
         <f>FlugzeugMitte!B29*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="A30" s="17">
         <f>(LinkeSeite!A30+RechteSeite!A30)/2</f>
         <v>51.899139999999967</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="18">
         <f>(LinkeSeite!B30*80+RechteSeite!B30*80)</f>
         <v>480</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="17">
         <f>FlugzeugMitte!A30</f>
         <v>49.816340000000004</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="18">
         <f>FlugzeugMitte!B30*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="A31" s="17">
         <f>(LinkeSeite!A31+RechteSeite!A31)/2</f>
         <v>52.788139999999963</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="18">
         <f>(LinkeSeite!B31*80+RechteSeite!B31*80)</f>
         <v>480</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="17">
         <f>FlugzeugMitte!A31</f>
         <v>50.679940000000002</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="18">
         <f>FlugzeugMitte!B31*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
+      <c r="A32" s="17">
         <f>(LinkeSeite!A32+RechteSeite!A32)/2</f>
         <v>53.677139999999959</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="18">
         <f>(LinkeSeite!B32*80+RechteSeite!B32*80)</f>
         <v>480</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="17">
         <f>FlugzeugMitte!A32</f>
         <v>51.54354</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="18">
         <f>FlugzeugMitte!B32*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+      <c r="A33" s="17">
         <f>(LinkeSeite!A33+RechteSeite!A33)/2</f>
         <v>54.566139999999955</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="18">
         <f>(LinkeSeite!B33*80+RechteSeite!B33*80)</f>
         <v>480</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="17">
         <f>FlugzeugMitte!A33</f>
         <v>52.407139999999998</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="18">
         <f>FlugzeugMitte!B33*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
+      <c r="A34" s="17">
         <f>(LinkeSeite!A34+RechteSeite!A34)/2</f>
         <v>55.45513999999995</v>
       </c>
-      <c r="B34" s="17">
-        <f>(LinkeSeite!B34*80+RechteSeite!B34*80)</f>
-        <v>480</v>
-      </c>
-      <c r="C34" s="14">
+      <c r="B34" s="18">
+        <v>320</v>
+      </c>
+      <c r="C34" s="17">
         <f>FlugzeugMitte!A34</f>
         <v>53.270739999999996</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="18">
         <f>FlugzeugMitte!B34*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
+      <c r="A35" s="17">
         <f>(LinkeSeite!A35+RechteSeite!A35)/2</f>
         <v>56.344139999999946</v>
       </c>
-      <c r="B35" s="17">
-        <f>(LinkeSeite!B35*80+RechteSeite!B35*80)</f>
-        <v>480</v>
-      </c>
-      <c r="C35" s="14">
+      <c r="B35" s="18">
+        <v>320</v>
+      </c>
+      <c r="C35" s="17">
         <f>FlugzeugMitte!A35</f>
         <v>54.134339999999995</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="18">
         <f>FlugzeugMitte!B35*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="14">
+      <c r="A36" s="17">
         <f>(LinkeSeite!A36+RechteSeite!A36)/2</f>
         <v>57.207739999999944</v>
       </c>
-      <c r="B36" s="17">
-        <f>(LinkeSeite!B36*80+RechteSeite!B36*80)</f>
-        <v>480</v>
-      </c>
-      <c r="C36" s="14">
+      <c r="B36" s="18">
+        <v>320</v>
+      </c>
+      <c r="C36" s="17">
         <f>FlugzeugMitte!A36</f>
         <v>54.997939999999993</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="18">
         <f>FlugzeugMitte!B36*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
+      <c r="A37" s="17">
         <f>(LinkeSeite!A37+RechteSeite!A37)/2</f>
         <v>58.071339999999942</v>
       </c>
-      <c r="B37" s="17">
-        <f>(LinkeSeite!B37*80+RechteSeite!B37*80)</f>
-        <v>480</v>
-      </c>
-      <c r="C37" s="14">
+      <c r="B37" s="18">
+        <v>320</v>
+      </c>
+      <c r="C37" s="17">
         <f>FlugzeugMitte!A37</f>
         <v>55.861539999999991</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="18">
         <f>FlugzeugMitte!B37*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+      <c r="A38" s="17">
         <f>(LinkeSeite!A38+RechteSeite!A38)/2</f>
         <v>58.934939999999941</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="18">
         <f>(LinkeSeite!B38*80+RechteSeite!B38*80)</f>
         <v>320</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="17">
         <f>FlugzeugMitte!A38</f>
         <v>56.725139999999989</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="18">
         <f>FlugzeugMitte!B38*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+      <c r="A39" s="17">
         <f>(LinkeSeite!A39+RechteSeite!A39)/2</f>
         <v>59.798539999999939</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="18">
         <f>(LinkeSeite!B39*80+RechteSeite!B39*80)</f>
         <v>320</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="17">
         <f>FlugzeugMitte!A39</f>
         <v>57.588739999999987</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="18">
         <f>FlugzeugMitte!B39*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
-        <f>(LinkeSeite!A40+RechteSeite!A40)/2</f>
-        <v>51.969739999999952</v>
-      </c>
-      <c r="B40" s="17">
-        <f>(LinkeSeite!B40*80+RechteSeite!B40*80)</f>
-        <v>320</v>
-      </c>
-      <c r="C40" s="14">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="17">
         <f>FlugzeugMitte!A40</f>
         <v>58.452339999999985</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="18">
         <f>FlugzeugMitte!B40*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
-        <f>(LinkeSeite!A41+RechteSeite!A41)/2</f>
-        <v>51.899139999999967</v>
-      </c>
-      <c r="B41" s="17">
-        <f>(LinkeSeite!B41*80+RechteSeite!B41*80)</f>
-        <v>320</v>
-      </c>
-      <c r="C41" s="14">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="17">
         <f>FlugzeugMitte!A41</f>
         <v>59.315939999999983</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="18">
         <f>FlugzeugMitte!B41*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
-        <f>(LinkeSeite!A42+RechteSeite!A42)/2</f>
-        <v>52.788139999999963</v>
-      </c>
-      <c r="B42" s="17">
-        <f>(LinkeSeite!B42*80+RechteSeite!B42*80)</f>
-        <v>320</v>
-      </c>
-      <c r="C42" s="14">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="17">
         <f>FlugzeugMitte!A42</f>
         <v>60.179539999999982</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="18">
         <f>FlugzeugMitte!B42*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
-        <f>(LinkeSeite!A43+RechteSeite!A43)/2</f>
-        <v>53.677139999999959</v>
-      </c>
-      <c r="B43" s="17">
-        <f>(LinkeSeite!B43*80+RechteSeite!B43*80)</f>
-        <v>320</v>
-      </c>
-      <c r="C43" s="14">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="17">
         <f>FlugzeugMitte!A43</f>
         <v>61.04313999999998</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="18">
         <f>FlugzeugMitte!B43*80</f>
         <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
-        <f>(LinkeSeite!A44+RechteSeite!A44)/2</f>
-        <v>54.566139999999955</v>
-      </c>
-      <c r="B44" s="17">
-        <f>(LinkeSeite!B44*80+RechteSeite!B44*80)</f>
-        <v>320</v>
-      </c>
-      <c r="C44" s="14">
-        <f>FlugzeugMitte!A44</f>
-        <v>51.410939999999997</v>
-      </c>
-      <c r="D44" s="17">
-        <f>FlugzeugMitte!B44*80</f>
-        <v>240</v>
-      </c>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
-        <f>(LinkeSeite!A45+RechteSeite!A45)/2</f>
-        <v>55.45513999999995</v>
-      </c>
-      <c r="B45" s="17">
-        <f>(LinkeSeite!B45*80+RechteSeite!B45*80)</f>
-        <v>320</v>
-      </c>
-      <c r="C45" s="14">
-        <f>FlugzeugMitte!A45</f>
-        <v>53.270739999999996</v>
-      </c>
-      <c r="D45" s="17">
-        <f>FlugzeugMitte!B45*80</f>
-        <v>240</v>
-      </c>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
-        <f>(LinkeSeite!A46+RechteSeite!A46)/2</f>
-        <v>56.344139999999946</v>
-      </c>
-      <c r="B46" s="17">
-        <f>(LinkeSeite!B46*80+RechteSeite!B46*80)</f>
-        <v>320</v>
-      </c>
-      <c r="C46" s="14">
-        <f>FlugzeugMitte!A46</f>
-        <v>54.134339999999995</v>
-      </c>
-      <c r="D46" s="17">
-        <f>FlugzeugMitte!B46*80</f>
-        <v>240</v>
-      </c>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="14">
-        <f>(LinkeSeite!A47+RechteSeite!A47)/2</f>
-        <v>57.207739999999944</v>
-      </c>
-      <c r="B47" s="17">
-        <f>(LinkeSeite!B47*80+RechteSeite!B47*80)</f>
-        <v>320</v>
-      </c>
-      <c r="C47" s="14">
-        <f>FlugzeugMitte!A47</f>
-        <v>54.997939999999993</v>
-      </c>
-      <c r="D47" s="17">
-        <f>FlugzeugMitte!B47*80</f>
-        <v>240</v>
-      </c>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="14">
-        <f>(LinkeSeite!A48+RechteSeite!A48)/2</f>
-        <v>58.071339999999942</v>
-      </c>
-      <c r="B48" s="17">
-        <f>(LinkeSeite!B48*80+RechteSeite!B48*80)</f>
-        <v>320</v>
-      </c>
-      <c r="C48" s="14">
-        <f>FlugzeugMitte!A48</f>
-        <v>55.861539999999991</v>
-      </c>
-      <c r="D48" s="17">
-        <f>FlugzeugMitte!B48*80</f>
-        <v>240</v>
-      </c>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="14">
-        <f>(LinkeSeite!A49+RechteSeite!A49)/2</f>
-        <v>58.934939999999941</v>
-      </c>
-      <c r="B49" s="17">
-        <f>(LinkeSeite!B49*80+RechteSeite!B49*80)</f>
-        <v>320</v>
-      </c>
-      <c r="C49" s="14">
-        <f>FlugzeugMitte!A49</f>
-        <v>56.725139999999989</v>
-      </c>
-      <c r="D49" s="17">
-        <f>FlugzeugMitte!B49*80</f>
-        <v>240</v>
-      </c>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="14">
-        <f>(LinkeSeite!A50+RechteSeite!A50)/2</f>
-        <v>59.798539999999939</v>
-      </c>
-      <c r="B50" s="17">
-        <f>(LinkeSeite!B50*80+RechteSeite!B50*80)</f>
-        <v>320</v>
-      </c>
-      <c r="C50" s="14">
-        <f>FlugzeugMitte!A50</f>
-        <v>57.588739999999987</v>
-      </c>
-      <c r="D50" s="17">
-        <f>FlugzeugMitte!B50*80</f>
-        <v>240</v>
-      </c>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="14">
-        <f>FlugzeugMitte!A51</f>
-        <v>58.452339999999985</v>
-      </c>
-      <c r="D51" s="17">
-        <f>FlugzeugMitte!B51*80</f>
-        <v>240</v>
-      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="14">
-        <f>FlugzeugMitte!A52</f>
-        <v>59.315939999999983</v>
-      </c>
-      <c r="D52" s="17">
-        <f>FlugzeugMitte!B52*80</f>
-        <v>240</v>
-      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="14">
-        <f>FlugzeugMitte!A53</f>
-        <v>60.179539999999982</v>
-      </c>
-      <c r="D53" s="17">
-        <f>FlugzeugMitte!B53*80</f>
-        <v>240</v>
-      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="14">
-        <f>FlugzeugMitte!A54</f>
-        <v>61.04313999999998</v>
-      </c>
-      <c r="D54" s="17">
-        <f>FlugzeugMitte!B54*80</f>
-        <v>240</v>
-      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
